--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value246.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value246.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.477903192895796</v>
+        <v>1.172834515571594</v>
       </c>
       <c r="B1">
-        <v>1.477100394248627</v>
+        <v>2.154973268508911</v>
       </c>
       <c r="C1">
-        <v>1.522111346037261</v>
+        <v>3.153638362884521</v>
       </c>
       <c r="D1">
-        <v>2.016407170189581</v>
+        <v>3.685949325561523</v>
       </c>
       <c r="E1">
-        <v>2.803292424250093</v>
+        <v>1.371334910392761</v>
       </c>
     </row>
   </sheetData>
